--- a/data/all_messages.xlsx
+++ b/data/all_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8:09 PM, 07/11/2023</t>
+          <t>9:01 AM, 08/11/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>r</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9:06 PM, 07/11/2023</t>
+          <t>9:01 AM, 08/11/2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:06 PM, 07/11/2023</t>
+          <t>9:01 AM, 08/11/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9:12 PM, 07/11/2023</t>
+          <t>0:46 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>tooth</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9:25 PM, 07/11/2023</t>
+          <t>0:50 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>oh</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9:25 PM, 07/11/2023</t>
+          <t>4:53 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:25 PM, 07/11/2023</t>
+          <t>5:09 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8:56 AM, 08/11/2023</t>
+          <t>5:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>Toother</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>5:29 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>5:33 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Igor    3Toother</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>5:35 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -717,17 +717,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>5:35 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>Igor    3T o o t h e r</t>
         </is>
       </c>
     </row>
@@ -740,17 +740,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>5:41 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>6:01 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0:46 PM, 08/11/2023</t>
+          <t>6:01 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -809,17 +809,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:50 PM, 08/11/2023</t>
+          <t>6:01 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor    18</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4:53 PM, 08/11/2023</t>
+          <t>6:03 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5:09 PM, 08/11/2023</t>
+          <t>6:07 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5:21 PM, 08/11/2023</t>
+          <t>6:10 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toother</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5:29 PM, 08/11/2023</t>
+          <t>6:10 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5:33 PM, 08/11/2023</t>
+          <t>6:12 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Igor    3Toother</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5:35 PM, 08/11/2023</t>
+          <t>6:14 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -970,17 +970,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5:35 PM, 08/11/2023</t>
+          <t>6:16 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Igor    3T o o t h e r</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5:41 PM, 08/11/2023</t>
+          <t>6:16 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.   Igor    18</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6:03 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor    3</t>
         </is>
       </c>
     </row>
@@ -1108,17 +1108,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6:07 PM, 08/11/2023</t>
+          <t>6:23 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6:10 PM, 08/11/2023</t>
+          <t>9:26 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6:10 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6:12 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>💩</t>
         </is>
       </c>
     </row>
@@ -1200,17 +1200,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6:14 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6:16 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6:16 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -1269,17 +1269,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor           1</t>
         </is>
       </c>
     </row>
@@ -1292,17 +1292,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>8:23 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>💩</t>
         </is>
       </c>
     </row>
@@ -1315,17 +1315,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.   Igor    3</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6:23 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9:26 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor           2</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>8:27 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>1.   Igor           5</t>
         </is>
       </c>
     </row>
@@ -1495,21 +1495,21 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>5:27 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1518,228 +1518,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>10:44 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.   Igor           1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>46</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>8:23 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Igor</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>💩</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>47</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>8:24 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Igor</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>/placar</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>48</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>8:24 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Placar Libertadores do Tooth</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>49</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>8:24 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Top Toother  |  No.Tooths</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>50</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>8:24 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1.   Igor           2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>51</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>8:27 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Igor</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>/placar</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>52</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>8:28 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Placar Libertadores do Tooth</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>53</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>8:28 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Top Toother  |  No.Tooths</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>54</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>8:28 AM, 09/11/2023</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>toothbot</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1.   Igor           5</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>

--- a/data/all_messages.xlsx
+++ b/data/all_messages.xlsx
@@ -464,17 +464,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>6:16 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:01 AM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:46 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0:50 PM, 08/11/2023</t>
+          <t>6:21 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor    3</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4:53 PM, 08/11/2023</t>
+          <t>6:23 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5:09 PM, 08/11/2023</t>
+          <t>9:26 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5:21 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Toother</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5:29 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>💩</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5:33 PM, 08/11/2023</t>
+          <t>9:28 PM, 08/11/2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Igor    3Toother</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5:35 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5:35 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Igor    3T o o t h e r</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5:41 PM, 08/11/2023</t>
+          <t>8:22 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1.   Igor           1</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>8:23 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>💩</t>
         </is>
       </c>
     </row>
@@ -786,17 +786,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6:01 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.   Igor    18</t>
+          <t>Placar Libertadores do Tooth</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6:03 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6:07 PM, 08/11/2023</t>
+          <t>8:24 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>1.   Igor           2</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6:10 PM, 08/11/2023</t>
+          <t>8:27 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6:10 PM, 08/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6:12 PM, 08/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>Top Toother  |  No.Tooths</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6:14 PM, 08/11/2023</t>
+          <t>8:28 AM, 09/11/2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>1.   Igor           5</t>
         </is>
       </c>
     </row>
@@ -966,11 +966,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6:16 PM, 08/11/2023</t>
+          <t>5:27 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -989,21 +989,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6:16 PM, 08/11/2023</t>
+          <t>10:44 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>toothbot</t>
+          <t>Igor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>/placar</t>
         </is>
       </c>
     </row>
@@ -1012,21 +1012,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>[</t>
         </is>
       </c>
     </row>
@@ -1035,11 +1035,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>{</t>
         </is>
       </c>
     </row>
@@ -1058,11 +1058,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>'</t>
         </is>
       </c>
     </row>
@@ -1081,11 +1081,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6:21 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.   Igor    3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1104,21 +1104,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6:23 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1127,11 +1127,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9:26 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1150,21 +1150,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1173,21 +1173,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>'</t>
         </is>
       </c>
     </row>
@@ -1196,21 +1196,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9:28 PM, 08/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>:</t>
         </is>
       </c>
     </row>
@@ -1219,11 +1219,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>[</t>
         </is>
       </c>
     </row>
@@ -1242,11 +1242,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>{</t>
         </is>
       </c>
     </row>
@@ -1265,11 +1265,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8:22 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.   Igor           1</t>
+          <t>'</t>
         </is>
       </c>
     </row>
@@ -1288,21 +1288,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8:23 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>💩</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1311,21 +1311,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8:24 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>g</t>
         </is>
       </c>
     </row>
@@ -1334,11 +1334,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8:24 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>o</t>
         </is>
       </c>
     </row>
@@ -1357,11 +1357,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8:24 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>r</t>
         </is>
       </c>
     </row>
@@ -1380,11 +1380,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8:24 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.   Igor           2</t>
+          <t>'</t>
         </is>
       </c>
     </row>
@@ -1403,21 +1403,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8:27 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>:</t>
         </is>
       </c>
     </row>
@@ -1426,11 +1426,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8:28 AM, 09/11/2023</t>
+          <t>10:56 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Placar Libertadores do Tooth</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8:28 AM, 09/11/2023</t>
+          <t>10:57 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Top Toother  |  No.Tooths</t>
+          <t>}</t>
         </is>
       </c>
     </row>
@@ -1472,11 +1472,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8:28 AM, 09/11/2023</t>
+          <t>10:57 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.   Igor           5</t>
+          <t>]</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1499,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5:27 PM, 09/11/2023</t>
+          <t>10:57 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>}</t>
         </is>
       </c>
     </row>
@@ -1522,17 +1522,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10:44 PM, 09/11/2023</t>
+          <t>10:57 PM, 09/11/2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Igor</t>
+          <t>toothbot</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/placar</t>
+          <t>]</t>
         </is>
       </c>
     </row>
